--- a/biology/Médecine/Raed_Arafat/Raed_Arafat.xlsx
+++ b/biology/Médecine/Raed_Arafat/Raed_Arafat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Raed Arafat (en arabe : رائد عرفات ; son prénom peut également être orthographié Rayed) est un médecin roumain de soins intensifs d'origine palestinienne, spécialisé en anesthésiologie né en Syrie le 24 mai 1964.
 Il a fondé le SMURD avec l'aide des pompiers roumains représentés par le lieutenant-colonel Mircea Pintilie. Il a également été coordinateur des services d'urgence du Județ de Mureș jusqu'en 2007, date à laquelle il a été invité à occuper le poste de sous-secrétaire d'État au ministère de la Santé pour s'occuper du développement des soins médicaux d'urgence en Roumanie.
 Il a également été, pendant une courte période, ministre de la Santé (du 7 novembre au 21 décembre 2012), et a exercé pendant de nombreuses années le poste de sous-secrétaire d'État à la Santé au sein du gouvernement roumain. Il a accepté le poste de ministre de la Santé à titre temporaire, après quoi il a été nommé secrétaire d'État au ministère de la Santé.
-En 2014, il a accepté le poste de secrétaire d'État au ministère de l'Intérieur pour diriger le nouveau département des situations d'urgence sous lequel sont coordonnés tous les services d'urgence, notamment les services d'incendie et de sauvetage, la protection civile, les interventions médicales préhospitalières d'urgence, le sauvetage aérien et les services d'urgence. Il occupe toujours ce poste au ministère de l'Intérieur[1].
+En 2014, il a accepté le poste de secrétaire d'État au ministère de l'Intérieur pour diriger le nouveau département des situations d'urgence sous lequel sont coordonnés tous les services d'urgence, notamment les services d'incendie et de sauvetage, la protection civile, les interventions médicales préhospitalières d'urgence, le sauvetage aérien et les services d'urgence. Il occupe toujours ce poste au ministère de l'Intérieur.
 </t>
         </is>
       </c>
@@ -514,9 +526,11 @@
           <t>Jeunesse</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arafat est né à Damas en Syrie d'un couple palestinien de Naplouse. Il a travaillé comme bénévole en médecine d'urgence dès l'âge de 14 ans[2],[3]. En 1981, il émigre en Roumanie et s'installe d'abord à Piteşti, où il suit des cours de roumain.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arafat est né à Damas en Syrie d'un couple palestinien de Naplouse. Il a travaillé comme bénévole en médecine d'urgence dès l'âge de 14 ans,. En 1981, il émigre en Roumanie et s'installe d'abord à Piteşti, où il suit des cours de roumain.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arafat s'est inscrit à l'Université de médecine et de pharmacie de Cluj-Napoca[2]. Il a ensuite rejoint l'Université de médecine de Târgu Mureș, où il a suivi une spécialisation en anesthésiologie[3]. Il a suivi un certain nombre de cours spécialisés à l'étranger, se formant auprès des pompiers de Paris, de la Garde nationale américaine et de l'ambulance aérienne norvégienne.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arafat s'est inscrit à l'Université de médecine et de pharmacie de Cluj-Napoca. Il a ensuite rejoint l'Université de médecine de Târgu Mureș, où il a suivi une spécialisation en anesthésiologie. Il a suivi un certain nombre de cours spécialisés à l'étranger, se formant auprès des pompiers de Paris, de la Garde nationale américaine et de l'ambulance aérienne norvégienne.
 </t>
         </is>
       </c>
@@ -576,10 +592,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Après la Révolution de 1989, Arafat envisagea de partir pour la France, mais sa candidature fut rejetée. Il se concentra donc plutôt sur la création d'un service d'urgence à Târgu Mureș (qu'il finança à l'origine avec des fonds personnels)[2].
-En 1991, il crée le SMURD, un service d'urgence mobile qui commence à collaborer avec les pompiers roumains et écossais[2],[3], travaillant pour eux en tant que volontaire jusqu'en 1998. Il obtient la citoyenneté roumaine en 1998[2],[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après la Révolution de 1989, Arafat envisagea de partir pour la France, mais sa candidature fut rejetée. Il se concentra donc plutôt sur la création d'un service d'urgence à Târgu Mureș (qu'il finança à l'origine avec des fonds personnels).
+En 1991, il crée le SMURD, un service d'urgence mobile qui commence à collaborer avec les pompiers roumains et écossais travaillant pour eux en tant que volontaire jusqu'en 1998. Il obtient la citoyenneté roumaine en 1998,.
 </t>
         </is>
       </c>
@@ -608,10 +626,12 @@
           <t>Politique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Fin 2005, son projet visant à faire fonctionner le SMURD comme un service de secours supplémentaire au niveau du comté a été adopté, mais a suscité l'opposition du médecin et homme politique social-démocrate Sorin Oprescu, qui avait rédigé une proposition alternative. Il a désigné Arafat comme "l'Ayatollah de la médecine d'urgence roumaine" et l'accent qu'il a mis sur le pays d'origine de ce dernier ce qui a attiré l'attention du Conseil national de lutte contre la discrimination. Instructeur de premiers secours, il a coordonné des conférences internationales sur le sujet dans plusieurs pays (dont l'Autriche, le Danemark, la Grèce, les Pays-Bas, la Nouvelle-Zélande, l'Irlande, le Royaume-Uni et les États-Unis). En 2003, il est fait Chevalier de l'Ordre National du Mérite de Roumanie.
-Depuis août 2009, il occupe le poste de sous-secrétaire d'État à la Santé[4]. Il a démissionné de ce poste le 10 janvier 2012, après avoir exprimé des critiques sur la réforme du système de santé. Après une série de manifestations dans plusieurs villes, le gouvernement a annoncé des modifications au plan de réforme et le Dr Arafat a repris son poste de sous-secrétaire d'État[5]. Fin 2012, il a été ministre roumain de la Santé, puis est revenu à ses fonctions de sous-secrétaire au sein de ce même ministère.
+Depuis août 2009, il occupe le poste de sous-secrétaire d'État à la Santé. Il a démissionné de ce poste le 10 janvier 2012, après avoir exprimé des critiques sur la réforme du système de santé. Après une série de manifestations dans plusieurs villes, le gouvernement a annoncé des modifications au plan de réforme et le Dr Arafat a repris son poste de sous-secrétaire d'État. Fin 2012, il a été ministre roumain de la Santé, puis est revenu à ses fonctions de sous-secrétaire au sein de ce même ministère.
 </t>
         </is>
       </c>
